--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Lịch Sử Đảng/Chương 3.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Lịch Sử Đảng/Chương 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Lịch Sử Đảng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A2C5AE-14E8-43CE-B316-94CBC3D1A13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690AF592-7B0A-4C61-84F8-284D470D8FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -632,79 +632,7 @@
     <t>Quan hệ kinh tế</t>
   </si>
   <si>
-    <t>Ai là Tổng Bí thư đầu tiên của Đảng?</t>
-  </si>
-  <si>
-    <t>Trần Phú</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hồ Chí Minh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Văn Cung </t>
-  </si>
-  <si>
-    <t>Lê Hồng Phong</t>
-  </si>
-  <si>
-    <t>Hội nghị Ban Chấp hành Trung ương Đảng họp tháng 7-1936 chủ trương thành lập mặt trận nào?</t>
-  </si>
-  <si>
-    <t>Mặt trận dân tộc thống nhất phản đế Đông Dương.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mặt trận dân chủ Đông Dương. </t>
-  </si>
-  <si>
-    <t>Mặt trận nhân dân phản đế Đông Dương.</t>
-  </si>
-  <si>
-    <t>Mặt trận phản đế đồng minh Đông Dương.</t>
-  </si>
-  <si>
-    <t>Đại hội lần thứ nhất của Đảng Cộng sản Đông Dương (3/1935) đã diễn ra ở đâu?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ma Cao (Trung Quốc) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao Bằng </t>
-  </si>
-  <si>
     <t>Hương Cảng (Trung Quốc)</t>
-  </si>
-  <si>
-    <t>Tân Trào.</t>
-  </si>
-  <si>
-    <t>Lá cờ đỏ sao vàng lần đầu tiên xuất hiện trong các cuộc khởi nghĩa nào?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khởi nghĩa Nam Kì </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khởi nghĩa Bắc Sơn </t>
-  </si>
-  <si>
-    <t>Khởi nghĩa Ba Tơ</t>
-  </si>
-  <si>
-    <t>Binh biến Đô Lương</t>
-  </si>
-  <si>
-    <t>Khẩu hiệu nào sau được nêu ra trong Cao trào kháng Nhật cứu nước?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đánh đuổi phát xít Nhật </t>
-  </si>
-  <si>
-    <t>Đánh đuổi phát xít Nhật- Pháp</t>
-  </si>
-  <si>
-    <t>Giải quyết nạn đói</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chống nhổ lúa trồng đay </t>
   </si>
   <si>
     <t>Đại hội toàn quốc lần thứ V của Đảng coi mặt trận hàng đầu là?</t>
@@ -1317,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1356,19 +1284,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>198</v>
+        <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="F2" s="13">
         <v>1</v>
@@ -1376,19 +1304,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="F3" s="13">
         <v>3</v>
@@ -1396,59 +1324,59 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="F4" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c r="F5" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="F6" s="13">
         <v>1</v>
@@ -1456,179 +1384,179 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F7" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F8" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F9" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F10" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="F11" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F12" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F13" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F14" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F15" s="13">
         <v>4</v>
@@ -1636,59 +1564,59 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="F17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
@@ -1696,19 +1624,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="F19" s="13">
         <v>3</v>
@@ -1716,59 +1644,59 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="F20" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F21" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F22" s="13">
         <v>2</v>
@@ -1776,139 +1704,139 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F23" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F24" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="F25" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F26" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="F27" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>108</v>
       </c>
       <c r="F28" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="F29" s="13">
         <v>4</v>
@@ -1916,19 +1844,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F30" s="13">
         <v>4</v>
@@ -1936,16 +1864,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>108</v>
@@ -1956,19 +1884,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
@@ -1976,279 +1904,279 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="F33" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F34" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>108</v>
+        <v>159</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="F35" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>108</v>
+        <v>160</v>
+      </c>
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36" s="7">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9">
+        <v>6</v>
+      </c>
+      <c r="E36" s="11">
+        <v>4</v>
       </c>
       <c r="F36" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="F37" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F38" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="F39" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="F40" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="5">
+        <v>185</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="13">
         <v>3</v>
-      </c>
-      <c r="C41" s="7">
-        <v>5</v>
-      </c>
-      <c r="D41" s="9">
-        <v>6</v>
-      </c>
-      <c r="E41" s="11">
-        <v>4</v>
-      </c>
-      <c r="F41" s="13">
-        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F42" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="F43" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F44" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="F45" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="F46" s="13">
         <v>3</v>
@@ -2256,19 +2184,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="F47" s="13">
         <v>3</v>
@@ -2276,59 +2204,59 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="F48" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="F49" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
@@ -2336,79 +2264,79 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F51" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>244</v>
+        <v>229</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>233</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F52" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>18</v>
+        <v>247</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>179</v>
+        <v>253</v>
       </c>
       <c r="F53" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F54" s="13">
         <v>3</v>
@@ -2416,19 +2344,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
@@ -2436,19 +2364,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
@@ -2456,141 +2384,41 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>257</v>
+        <v>258</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F57" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="F58" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E59" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F59" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E60" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F60" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F61" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F62" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="13">
         <v>4</v>
       </c>
     </row>

--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Lịch Sử Đảng/Chương 3.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Lịch Sử Đảng/Chương 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Lịch Sử Đảng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690AF592-7B0A-4C61-84F8-284D470D8FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59766D4-6E48-41B6-826E-124BE6B89644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="266">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Đại hội VI ( 12/1986)</t>
   </si>
   <si>
-    <t xml:space="preserve">Đại hội III                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miền Bắc                                                               </t>
-  </si>
-  <si>
     <t>Gắn với phát triển kinh tế tri thức, coi kinh tế tri thức là yếu tố quan trọng của nền kinh tế và của công nghiệp hóa, hiện đại hóa.</t>
   </si>
   <si>
@@ -140,12 +134,6 @@
     <t>Đại hội VIII (28/6-1/7/1996)</t>
   </si>
   <si>
-    <t xml:space="preserve">Đại hội V                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miền Trung                                                           </t>
-  </si>
-  <si>
     <t>Gắn với nền kinh tế khép kín</t>
   </si>
   <si>
@@ -170,9 +158,6 @@
     <t>Xây dựng nền kinh tế khép kín và hướng nội</t>
   </si>
   <si>
-    <t xml:space="preserve">22 năm                                                                </t>
-  </si>
-  <si>
     <t>Nền tảng và động lực CNH,HĐH chính là khoa học, công nghệ.</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>Xây dựng nền kinh tế phải dựa vào sự giúp đỡ và lệ thuộc vào các nước tư bản</t>
   </si>
   <si>
-    <t xml:space="preserve">24 năm                                                               </t>
-  </si>
-  <si>
     <t>Tăng trưởng kinh tế đi đôi với thực hiện tiến bộ, công bằng xã hội.</t>
   </si>
   <si>
@@ -218,9 +200,6 @@
     <t>Khoa học và công nghệ là yếu tố cơ bản cho sự phát triển nhanh nền kinh tế nước ta</t>
   </si>
   <si>
-    <t xml:space="preserve">Tháng 12/1960                                                     </t>
-  </si>
-  <si>
     <t>VII</t>
   </si>
   <si>
@@ -236,9 +215,6 @@
     <t>CNH,HĐH gắn với phát triển kinh tế thị trường định hướng xã hội chủ nghĩa và hội nhập kinh tế quốc tế</t>
   </si>
   <si>
-    <t xml:space="preserve">Tháng 4/1975                                                </t>
-  </si>
-  <si>
     <t>IX</t>
   </si>
   <si>
@@ -560,27 +536,18 @@
     <t xml:space="preserve">Đại hội VI </t>
   </si>
   <si>
-    <t xml:space="preserve">Đại hội lần thứ IV </t>
-  </si>
-  <si>
     <t>Kinh tế kế hoạch hóa định hướng XHCN</t>
   </si>
   <si>
     <t xml:space="preserve">Đại hội VII </t>
   </si>
   <si>
-    <t xml:space="preserve">Đại hội lần thứ V </t>
-  </si>
-  <si>
     <t>Kinh tế thị trường theo định hướng XHCN</t>
   </si>
   <si>
     <t>Đại hội VIII</t>
   </si>
   <si>
-    <t xml:space="preserve">Đại hội lần thứ VI </t>
-  </si>
-  <si>
     <t>Kinh tế nhiều thành phần có sự quản lý của nhà nước theo định hướng XHCN</t>
   </si>
   <si>
@@ -602,12 +569,6 @@
     <t>Vốn</t>
   </si>
   <si>
-    <t xml:space="preserve">Đại hội lần thứ IV                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Điều kiện kinh tế                                               </t>
-  </si>
-  <si>
     <t>Thể chế chính trị</t>
   </si>
   <si>
@@ -617,15 +578,6 @@
     <t>Môi trường kinh tế</t>
   </si>
   <si>
-    <t xml:space="preserve">Khoa học và công nghệ                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đại hội lần thứ VI                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguồn lực kinh tế                                     </t>
-  </si>
-  <si>
     <t>Con người</t>
   </si>
   <si>
@@ -647,9 +599,6 @@
     <t>Tư duy của Đảng về kinh tế thị trường từ Đại hội đại biểu toàn quốc lần thứ VI đến Đại hội đại biểu toàn quốc lần thứ VIII?</t>
   </si>
   <si>
-    <t xml:space="preserve">Công nghệ máy móc                                           </t>
-  </si>
-  <si>
     <t>Gắn thị trường trong nước và xuất khẩu</t>
   </si>
   <si>
@@ -737,9 +686,6 @@
     <t>Tiến nhanh, tiến mạnh, tiến vững chắc lên chủ nghĩa xã hội</t>
   </si>
   <si>
-    <t xml:space="preserve">28/07/1995                                                         </t>
-  </si>
-  <si>
     <t>Cao Bằng</t>
   </si>
   <si>
@@ -752,9 +698,6 @@
     <t>Đẩy mạnh công nghiệp hóa, hiện đại hóa đất nước</t>
   </si>
   <si>
-    <t xml:space="preserve">16/03/1993                                                         </t>
-  </si>
-  <si>
     <t>Sài Gòn</t>
   </si>
   <si>
@@ -788,9 +731,6 @@
     <t>Năm 1976 Việt Nam đặt quan hệ ngoại giao cuối cùng với Thái Lan và Philipin</t>
   </si>
   <si>
-    <t xml:space="preserve">Độc lập, tự chủ, tự lực, tự cường               </t>
-  </si>
-  <si>
     <t>Nâng cao vị thế trong quan hệ ngoại giao khu vực và quốc tế</t>
   </si>
   <si>
@@ -815,9 +755,6 @@
     <t>Chủ trương đối ngoại của Đại hội VIII có những đặc điểm mới hơn so với đại hội lần thứ VII là gì?</t>
   </si>
   <si>
-    <t xml:space="preserve">Sẵn sàng - đối tác tin cậy                                 </t>
-  </si>
-  <si>
     <t>Thu hút vốn đầu tư nước ngoài ngày càng nhiều</t>
   </si>
   <si>
@@ -833,9 +770,6 @@
     <t>Giải quyết hòa bình các vấn đề biên giới, lãnh thổ</t>
   </si>
   <si>
-    <t xml:space="preserve">Đã, đang và sẽ - đối tác tin cậy                        </t>
-  </si>
-  <si>
     <t>Mở rộng quan hệ với Đảng cầm quyền và các Đảng khác; quán triệt yêu cầu mở rộng quan hệ đối ngoại nhân dân, quan hệ với các tổ chức phi chính phủ; thử nghiệm tiến tới đầu tư ra nước ngoài</t>
   </si>
   <si>
@@ -846,6 +780,60 @@
   </si>
   <si>
     <t>Quan hệ chặt chẽ giữa Việt Nam và Hoa Kỳ</t>
+  </si>
+  <si>
+    <t>Miền Bắc</t>
+  </si>
+  <si>
+    <t>Miền Trung</t>
+  </si>
+  <si>
+    <t>Đại hội III</t>
+  </si>
+  <si>
+    <t>22 năm</t>
+  </si>
+  <si>
+    <t>24 năm</t>
+  </si>
+  <si>
+    <t>Tháng 12/1960</t>
+  </si>
+  <si>
+    <t>Tháng 4/1975</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ IV</t>
+  </si>
+  <si>
+    <t>Đại hội lần thứ VI</t>
+  </si>
+  <si>
+    <t>Khoa học và công nghệ</t>
+  </si>
+  <si>
+    <t>Điều kiện kinh tế</t>
+  </si>
+  <si>
+    <t>Nguồn lực kinh tế</t>
+  </si>
+  <si>
+    <t>Công nghệ máy móc</t>
+  </si>
+  <si>
+    <t>Sẵn sàng - đối tác tin cậy</t>
+  </si>
+  <si>
+    <t>Đã, đang và sẽ - đối tác tin cậy</t>
+  </si>
+  <si>
+    <t>28/07/1995</t>
+  </si>
+  <si>
+    <t>16/03/1993</t>
+  </si>
+  <si>
+    <t>Độc lập, tự chủ, tự lực, tự cường</t>
   </si>
 </sst>
 </file>
@@ -1247,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1350,13 +1338,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
       </c>
       <c r="F5" s="13">
         <v>3</v>
@@ -1367,13 +1355,13 @@
         <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>250</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>34</v>
+        <v>204</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>18</v>
@@ -1387,16 +1375,16 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="13">
         <v>4</v>
@@ -1407,16 +1395,16 @@
         <v>24</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="E8" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F8" s="13">
         <v>1</v>
@@ -1424,19 +1412,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F9" s="13">
         <v>2</v>
@@ -1444,19 +1432,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F10" s="13">
         <v>4</v>
@@ -1464,19 +1452,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F11" s="13">
         <v>2</v>
@@ -1484,19 +1472,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F12" s="13">
         <v>1</v>
@@ -1504,19 +1492,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13" s="13">
         <v>3</v>
@@ -1524,19 +1512,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F14" s="13">
         <v>3</v>
@@ -1544,19 +1532,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="F15" s="13">
         <v>4</v>
@@ -1564,19 +1552,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="13">
         <v>4</v>
@@ -1584,19 +1572,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F17" s="13">
         <v>2</v>
@@ -1604,19 +1592,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F18" s="13">
         <v>3</v>
@@ -1624,19 +1612,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F19" s="13">
         <v>3</v>
@@ -1644,19 +1632,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
@@ -1664,19 +1652,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F21" s="13">
         <v>1</v>
@@ -1684,19 +1672,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F22" s="13">
         <v>2</v>
@@ -1704,19 +1692,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F23" s="13">
         <v>4</v>
@@ -1724,19 +1712,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F24" s="13">
         <v>4</v>
@@ -1744,19 +1732,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F25" s="13">
         <v>4</v>
@@ -1764,19 +1752,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F26" s="13">
         <v>4</v>
@@ -1784,19 +1772,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -1804,19 +1792,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F28" s="13">
         <v>3</v>
@@ -1824,19 +1812,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F29" s="13">
         <v>4</v>
@@ -1844,19 +1832,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F30" s="13">
         <v>4</v>
@@ -1864,19 +1852,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F31" s="13">
         <v>4</v>
@@ -1884,19 +1872,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F32" s="13">
         <v>1</v>
@@ -1904,19 +1892,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F33" s="13">
         <v>1</v>
@@ -1924,19 +1912,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F34" s="13">
         <v>1</v>
@@ -1944,19 +1932,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F35" s="13">
         <v>1</v>
@@ -1964,7 +1952,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B36" s="5">
         <v>3</v>
@@ -1984,19 +1972,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F37" s="13">
         <v>4</v>
@@ -2004,19 +1992,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="E38" s="11" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F38" s="13">
         <v>2</v>
@@ -2024,19 +2012,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F39" s="13">
         <v>3</v>
@@ -2044,19 +2032,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F40" s="13">
         <v>4</v>
@@ -2064,19 +2052,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>194</v>
+        <v>256</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="F41" s="13">
         <v>3</v>
@@ -2084,19 +2072,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>189</v>
+        <v>258</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F42" s="13">
         <v>3</v>
@@ -2104,19 +2092,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>203</v>
+        <v>260</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F43" s="13">
         <v>4</v>
@@ -2124,19 +2112,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F44" s="13">
         <v>2</v>
@@ -2144,19 +2132,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F45" s="13">
         <v>1</v>
@@ -2164,19 +2152,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F46" s="13">
         <v>3</v>
@@ -2184,19 +2172,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F47" s="13">
         <v>3</v>
@@ -2204,19 +2192,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F48" s="13">
         <v>2</v>
@@ -2224,19 +2212,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="F49" s="13">
         <v>3</v>
@@ -2244,19 +2232,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="F50" s="13">
         <v>1</v>
@@ -2264,19 +2252,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F51" s="13">
         <v>1</v>
@@ -2284,19 +2272,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="F52" s="13">
         <v>1</v>
@@ -2304,19 +2292,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F53" s="13">
         <v>3</v>
@@ -2324,19 +2312,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F54" s="13">
         <v>3</v>
@@ -2344,19 +2332,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F55" s="13">
         <v>1</v>
@@ -2364,19 +2352,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>265</v>
-      </c>
       <c r="E56" s="11" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F56" s="13">
         <v>1</v>
@@ -2384,19 +2372,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="F57" s="13">
         <v>3</v>
@@ -2404,19 +2392,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F58" s="13">
         <v>4</v>
